--- a/excel/pivot_Datasets.xlsx
+++ b/excel/pivot_Datasets.xlsx
@@ -2,25 +2,44 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="categories wise sale" sheetId="2" r:id="rId1"/>
     <sheet name="region wise SALE" sheetId="3" r:id="rId2"/>
-    <sheet name="datasets" sheetId="1" r:id="rId3"/>
+    <sheet name="DASHBOARD" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="datasets" sheetId="1" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">datasets!$B$1:$B$20</definedName>
+    <definedName name="Slicer_Product_Category">#N/A</definedName>
+    <definedName name="Slicer_Product_Name">#N/A</definedName>
+    <definedName name="Slicer_Region">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId7"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>Region</t>
   </si>
@@ -114,12 +133,18 @@
   <si>
     <t>Average of Sales</t>
   </si>
+  <si>
+    <t>Sum of Profit ($)</t>
+  </si>
+  <si>
+    <t>SALES DASHBOARD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +152,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,13 +186,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,6 +1016,3795 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[pivot_Datasets.xlsx]region wise SALE!PivotTable3</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'region wise SALE'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'region wise SALE'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'region wise SALE'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B29-44E7-9925-A29CB866314D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1592262943"/>
+        <c:axId val="1592262111"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1592262943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592262111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1592262111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592262943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[pivot_Datasets.xlsx]categories wise sale!PivotTable2</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Profit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'categories wise sale'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Sales ($)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'categories wise sale'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Home Appliances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'categories wise sale'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE77-430C-B2BB-5E3912F545B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'categories wise sale'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'categories wise sale'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Home Appliances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'categories wise sale'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>537.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>516.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE77-430C-B2BB-5E3912F545B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1596292959"/>
+        <c:axId val="1596291295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1596292959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596291295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1596291295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596292959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[pivot_Datasets.xlsx]Sheet2!PivotTable2</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales vs profit (Categories wise)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Sales ($)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Home Appliances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D48-49DD-B89D-C9930ACE854E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Profit ($)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Home Appliances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D48-49DD-B89D-C9930ACE854E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1993888191"/>
+        <c:axId val="1993880287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1993888191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993880287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1993880287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993888191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:glow rad="228600">
+        <a:schemeClr val="accent1">
+          <a:alpha val="40000"/>
+        </a:schemeClr>
+      </a:glow>
+      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="64000"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT w="31750"/>
+    </a:sp3d>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[pivot_Datasets.xlsx]Sheet3!PivotTable3</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36440223097112862"/>
+          <c:y val="0.179951516477107"/>
+          <c:w val="0.41147353455818025"/>
+          <c:h val="0.68578922426363376"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AD31-45AC-864C-8031D218E1CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AD31-45AC-864C-8031D218E1CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AD31-45AC-864C-8031D218E1CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AD31-45AC-864C-8031D218E1CE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34065934065934067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17582417582417584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8901098901098897E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AD31-45AC-864C-8031D218E1CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[pivot_Datasets.xlsx]Sheet2!PivotTable2</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales vs profit (Categories wise)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Sales ($)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Home Appliances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D94-43D9-B83E-F26D603346B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Profit ($)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Home Appliances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D94-43D9-B83E-F26D603346B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1993888191"/>
+        <c:axId val="1993880287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1993888191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993880287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1993880287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993888191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:glow rad="228600">
+        <a:schemeClr val="accent1">
+          <a:alpha val="40000"/>
+        </a:schemeClr>
+      </a:glow>
+      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="64000"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT w="31750"/>
+    </a:sp3d>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[pivot_Datasets.xlsx]Sheet3!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36440223097112862"/>
+          <c:y val="0.179951516477107"/>
+          <c:w val="0.41147353455818025"/>
+          <c:h val="0.68578922426363376"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34065934065934067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17582417582417584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8901098901098897E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC36-4F0D-9D44-3606927A219E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1054,6 +4885,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2028,6 +6099,3056 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2065,15 +9186,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>273504</xdr:colOff>
+      <xdr:colOff>259216</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>22180</xdr:rowOff>
+      <xdr:rowOff>26942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>425903</xdr:colOff>
+      <xdr:colOff>411615</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>99968</xdr:rowOff>
+      <xdr:rowOff>104730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2100,15 +9221,506 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>300990</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:colOff>95837</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>605790</xdr:colOff>
+      <xdr:colOff>400637</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="region sales"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450166</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>450166</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Product Name"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product Name"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7185074" y="376897"/>
+              <a:ext cx="1828800" cy="3485857"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>362242</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>362242</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4102</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Product Category"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product Category"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8316350" y="0"/>
+              <a:ext cx="1828800" cy="1276056"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="region sales"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203049</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60756</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Product Category 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product Category 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8145780" y="388621"/>
+              <a:ext cx="1828800" cy="1341119"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50426</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87853</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152848</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Region"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8130540" y="2697481"/>
+              <a:ext cx="1828800" cy="1470660"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>199585</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504385</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>157968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2152,7 +9764,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Product Name" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="10">
+        <s v="Laptop"/>
+        <s v="Refrigerator"/>
+        <s v="Smartphone"/>
+        <s v="Dining Table"/>
+        <s v="Sofa"/>
+        <s v="Office Chair"/>
+        <s v="Headphones"/>
+        <s v="Washing Machine"/>
+        <s v="Microwave Oven"/>
+        <s v="Tablet"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Sales ($)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="1200"/>
@@ -2169,7 +9792,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -2180,7 +9803,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="Laptop"/>
+    <x v="0"/>
     <n v="1200"/>
     <n v="1"/>
     <n v="0"/>
@@ -2189,7 +9812,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="Refrigerator"/>
+    <x v="1"/>
     <n v="900"/>
     <n v="1"/>
     <n v="10"/>
@@ -2198,7 +9821,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="Smartphone"/>
+    <x v="2"/>
     <n v="500"/>
     <n v="2"/>
     <n v="5"/>
@@ -2207,7 +9830,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="Dining Table"/>
+    <x v="3"/>
     <n v="700"/>
     <n v="1"/>
     <n v="5"/>
@@ -2216,7 +9839,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="Sofa"/>
+    <x v="4"/>
     <n v="800"/>
     <n v="1"/>
     <n v="20"/>
@@ -2225,7 +9848,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <s v="Office Chair"/>
+    <x v="5"/>
     <n v="300"/>
     <n v="4"/>
     <n v="10"/>
@@ -2234,7 +9857,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="Headphones"/>
+    <x v="6"/>
     <n v="100"/>
     <n v="5"/>
     <n v="0"/>
@@ -2243,7 +9866,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="Washing Machine"/>
+    <x v="7"/>
     <n v="500"/>
     <n v="1"/>
     <n v="5"/>
@@ -2252,7 +9875,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <s v="Microwave Oven"/>
+    <x v="8"/>
     <n v="150"/>
     <n v="3"/>
     <n v="15"/>
@@ -2261,7 +9884,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <s v="Tablet"/>
+    <x v="9"/>
     <n v="350"/>
     <n v="2"/>
     <n v="5"/>
@@ -2271,10 +9894,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
@@ -2321,7 +9952,7 @@
     <dataField name="Sum of Sales ($)" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Average of Sales" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -2332,6 +9963,24 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2351,7 +10000,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -2363,8 +10012,29 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2396,8 +10066,17 @@
   <dataFields count="1">
     <dataField name="Sum of Sales ($)" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2417,7 +10096,300 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sales ($)" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Profit ($)" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Profit ($)" fld="6" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="11">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D16:E20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -2473,6 +10445,84 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Product_Name" sourceName="Product Name">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="10">
+        <i x="3" s="1"/>
+        <i x="6" s="1"/>
+        <i x="0" s="1"/>
+        <i x="8" s="1"/>
+        <i x="5" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="4" s="1"/>
+        <i x="9" s="1"/>
+        <i x="7" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Product_Category" sourceName="Product Category">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable3"/>
+    <pivotTable tabId="2" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region" sourceName="Region">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable2"/>
+    <pivotTable tabId="1" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable3"/>
+    <pivotTable tabId="5" name="PivotTable2"/>
+    <pivotTable tabId="6" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="4">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Product Name" cache="Slicer_Product_Name" caption="Product Name" rowHeight="234950"/>
+  <slicer name="Product Category" cache="Slicer_Product_Category" caption="Product Category" rowHeight="234950"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Product Category 1" cache="Slicer_Product_Category" caption="Product Category" rowHeight="234950"/>
+  <slicer name="Region" cache="Slicer_Region" caption="Region" rowHeight="234950"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2741,13 +10791,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
@@ -2819,7 +10869,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2879,16 +10929,234 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2150</v>
+      </c>
+      <c r="C4" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1800</v>
+      </c>
+      <c r="C5" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C6" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5500</v>
+      </c>
+      <c r="C7" s="3">
+        <v>910</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.34065934065934067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.17582417582417584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9.8901098901098897E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3193,6 +11461,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/pivot_Datasets.xlsx
+++ b/excel/pivot_Datasets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="categories wise sale" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,9 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Region</t>
   </si>
@@ -327,16 +328,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'categories wise sale'!$A$4:$A$7</c:f>
+              <c:f>'categories wise sale'!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Home Appliances</c:v>
                 </c:pt>
               </c:strCache>
@@ -344,17 +339,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'categories wise sale'!$B$4:$B$7</c:f>
+              <c:f>'categories wise sale'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1550</c:v>
                 </c:pt>
               </c:numCache>
@@ -392,16 +381,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'categories wise sale'!$A$4:$A$7</c:f>
+              <c:f>'categories wise sale'!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Home Appliances</c:v>
                 </c:pt>
               </c:strCache>
@@ -409,17 +392,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'categories wise sale'!$C$4:$C$7</c:f>
+              <c:f>'categories wise sale'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>537.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>516.66666666666663</c:v>
                 </c:pt>
               </c:numCache>
@@ -663,7 +640,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -758,19 +734,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'region wise SALE'!$A$4:$A$8</c:f>
+              <c:f>'region wise SALE'!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>East</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>North</c:v>
+                  <c:v>South</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
@@ -778,21 +751,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'region wise SALE'!$B$4:$B$8</c:f>
+              <c:f>'region wise SALE'!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2100</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,7 +903,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1285,19 +1254,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'region wise SALE'!$A$4:$A$8</c:f>
+              <c:f>'region wise SALE'!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>East</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>North</c:v>
+                  <c:v>South</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
@@ -1305,21 +1271,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'region wise SALE'!$B$4:$B$8</c:f>
+              <c:f>'region wise SALE'!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2100</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,16 +1693,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'categories wise sale'!$A$4:$A$7</c:f>
+              <c:f>'categories wise sale'!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Home Appliances</c:v>
                 </c:pt>
               </c:strCache>
@@ -1747,17 +1704,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'categories wise sale'!$B$4:$B$7</c:f>
+              <c:f>'categories wise sale'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1550</c:v>
                 </c:pt>
               </c:numCache>
@@ -1795,16 +1746,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'categories wise sale'!$A$4:$A$7</c:f>
+              <c:f>'categories wise sale'!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Home Appliances</c:v>
                 </c:pt>
               </c:strCache>
@@ -1812,17 +1757,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'categories wise sale'!$C$4:$C$7</c:f>
+              <c:f>'categories wise sale'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>537.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>516.66666666666663</c:v>
                 </c:pt>
               </c:numCache>
@@ -2541,16 +2480,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:f>Sheet2!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Home Appliances</c:v>
                 </c:pt>
               </c:strCache>
@@ -2558,17 +2491,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$7</c:f>
+              <c:f>Sheet2!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1550</c:v>
                 </c:pt>
               </c:numCache>
@@ -2665,16 +2592,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:f>Sheet2!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Home Appliances</c:v>
                 </c:pt>
               </c:strCache>
@@ -2682,17 +2603,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$4:$C$7</c:f>
+              <c:f>Sheet2!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
@@ -3504,19 +3419,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$4:$A$8</c:f>
+              <c:f>Sheet3!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>East</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>North</c:v>
+                  <c:v>South</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
@@ -3524,21 +3436,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$4:$B$8</c:f>
+              <c:f>Sheet3!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34065934065934067</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17582417582417584</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8901098901098897E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,7 +3605,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3732,7 +3640,6 @@
         <c:idx val="0"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -3741,9 +3648,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3751,7 +3656,6 @@
         <c:idx val="1"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -3760,14 +3664,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="4"/>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3782,7 +3684,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3820,14 +3721,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="5"/>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3842,7 +3741,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3880,9 +3778,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3957,7 +3853,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3978,16 +3873,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:f>Sheet2!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Home Appliances</c:v>
                 </c:pt>
               </c:strCache>
@@ -3995,17 +3884,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$7</c:f>
+              <c:f>Sheet2!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1550</c:v>
                 </c:pt>
               </c:numCache>
@@ -4081,7 +3964,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4102,16 +3984,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:f>Sheet2!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Home Appliances</c:v>
                 </c:pt>
               </c:strCache>
@@ -4119,17 +3995,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$4:$C$7</c:f>
+              <c:f>Sheet2!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
@@ -4365,7 +4235,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4432,7 +4301,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -4487,10 +4355,65 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4535,6 +4458,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B40B-47EB-966D-0B17BA1248DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4550,6 +4478,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B40B-47EB-966D-0B17BA1248DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4565,6 +4498,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B40B-47EB-966D-0B17BA1248DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4580,6 +4518,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B40B-47EB-966D-0B17BA1248DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4651,25 +4594,21 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$4:$A$8</c:f>
+              <c:f>Sheet3!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>East</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>North</c:v>
+                  <c:v>South</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
@@ -4677,21 +4616,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$4:$B$8</c:f>
+              <c:f>Sheet3!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34065934065934067</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17582417582417584</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8901098901098897E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4723,7 +4659,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9261,8 +9196,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>46892</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Product Name"/>
@@ -9279,7 +9214,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9333,8 +9268,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>4102</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Product Category"/>
@@ -9351,7 +9286,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9474,8 +9409,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Product Category 1"/>
@@ -9492,7 +9427,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9610,8 +9545,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Region"/>
@@ -9628,7 +9563,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9894,8 +9829,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
       <items count="5">
@@ -9908,8 +9843,8 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -9923,13 +9858,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="2"/>
     </i>
@@ -10000,8 +9929,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -10014,8 +9943,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -10043,12 +9972,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -10096,8 +10022,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
       <items count="5">
@@ -10110,8 +10036,8 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -10125,13 +10051,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="2"/>
     </i>
@@ -10155,7 +10075,7 @@
     <dataField name="Sum of Profit ($)" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="4">
-    <chartFormat chart="3" format="4" series="1">
+    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10164,7 +10084,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
+    <chartFormat chart="3" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10202,8 +10122,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -10216,8 +10136,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -10231,12 +10151,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -10254,7 +10171,7 @@
   <dataFields count="1">
     <dataField name="Sum of Profit ($)" fld="6" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="11">
+  <chartFormats count="15">
     <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10378,6 +10295,54 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10389,8 +10354,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D16:E20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D16:E18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
       <items count="5">
@@ -10403,8 +10368,8 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -10418,13 +10383,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="2"/>
     </i>
@@ -10455,16 +10414,16 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="10">
-        <i x="3" s="1"/>
-        <i x="6" s="1"/>
-        <i x="0" s="1"/>
         <i x="8" s="1"/>
-        <i x="5" s="1"/>
         <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="4" s="1"/>
-        <i x="9" s="1"/>
         <i x="7" s="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -10476,12 +10435,15 @@
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable3"/>
     <pivotTable tabId="2" name="PivotTable2"/>
+    <pivotTable tabId="1" name="PivotTable1"/>
+    <pivotTable tabId="5" name="PivotTable2"/>
+    <pivotTable tabId="6" name="PivotTable3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
       <items count="3">
-        <i x="0" s="1"/>
-        <i x="2" s="1"/>
+        <i x="0"/>
+        <i x="2"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -10502,9 +10464,9 @@
     <tabular pivotCacheId="1">
       <items count="4">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
         <i x="2" s="1"/>
         <i x="3" s="1"/>
+        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -10789,7 +10751,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:C5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -10797,7 +10759,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
@@ -10815,46 +10777,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>2150</v>
+        <v>1550</v>
       </c>
       <c r="C4" s="3">
-        <v>537.5</v>
+        <v>516.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
-        <v>1800</v>
+        <v>1550</v>
       </c>
       <c r="C5" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1550</v>
-      </c>
-      <c r="C6" s="3">
         <v>516.66666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5500</v>
-      </c>
-      <c r="C7" s="3">
-        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -10866,7 +10806,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -10891,39 +10831,31 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>2100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
-        <v>900</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5500</v>
+        <v>1550</v>
       </c>
     </row>
   </sheetData>
@@ -10943,7 +10875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -11008,7 +10940,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:C5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
@@ -11016,7 +10948,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -11034,46 +10966,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>2150</v>
+        <v>1550</v>
       </c>
       <c r="C4" s="3">
-        <v>390</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
-        <v>1800</v>
+        <v>1550</v>
       </c>
       <c r="C5" s="3">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1550</v>
-      </c>
-      <c r="C6" s="3">
         <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5500</v>
-      </c>
-      <c r="C7" s="3">
-        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -11084,7 +10994,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -11109,38 +11019,30 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>0.38461538461538464</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4">
-        <v>0.34065934065934067</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4">
-        <v>0.17582417582417584</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4">
-        <v>9.8901098901098897E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11153,17 +11055,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:G11"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11430,34 +11332,18 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>2150</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3">
         <v>1550</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5500</v>
       </c>
     </row>
   </sheetData>
